--- a/data/minfin/10_questions.xlsx
+++ b/data/minfin/10_questions.xlsx
@@ -103,24 +103,12 @@
     <t>Что является объектом налогообложения НДС?</t>
   </si>
   <si>
-    <t>Объектом налогообложения налога на добавленную стоимость признаются операции по реализации товаров (работ, услуг), передаче имущественных прав на территории Российской Федерации, а также ввоз товаров на территорию Российской Федерации</t>
-  </si>
-  <si>
     <t>В соответствии со статьей 146 НК РФ объектом налогообложения налога на добавленную стоимость признаются операции по реализации товаров (работ, услуг), передаче имущественных прав на территории Российской Федерации, а также ввоз товаров на территорию Российской Федерации</t>
   </si>
   <si>
     <t>Когда организация (индивидуальный предприниматель) выполняет обязанности налогового агента по НДС при приобретении товаров (работ, услуг)?</t>
   </si>
   <si>
-    <t>При приобретении товаров (работ, услуг), местом реализации которых признается территория Российской Федерации, у иностранных лиц, не состоящих на налоговом учете в российских налоговых органах; при приобретении услуг по аренде федерального имущества, имущества субъектов Российской Федерации и муниципального имущества, а также при приобретении государственного имущества; при приобретении имущества или имущественных прав должников, признанных банкротами</t>
-  </si>
-  <si>
-    <t>В соответствии со статьей 161 НК РФ организации (индивидуальные предприниматели) выступают налоговыми агентами по НДС:
-• при приобретении товаров (работ, услуг), местом реализации которых признается территория Российской Федерации, у иностранных лиц, не состоящих на налоговом учете в российских налоговых органах; 
-• при приобретении услуг по аренде федерального имущества, имущества субъектов Российской Федерации и муниципального имущества, а также при приобретении государственного имущества; 
-• при приобретении имущества или имущественных прав должников, признанных банкротами</t>
-  </si>
-  <si>
     <t>Организация, Индивидуальный предприниматель, Выполняет, Обязанности, Налогового агента, НДС, Налог, На добавленную стоимость, Приобретение, Товаров, Работ, Услуг</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
   </si>
   <si>
     <t>Условия, Для принятия к вычету сумм НДС, Налог, На добавленную стоимость, Предъявленных, При приобретении товаров, работ, услуг, На территорию, Российская Федерация, Ввоз товаров</t>
-  </si>
-  <si>
-    <t>Товары (работы, услуги) должны быть признаны объектом налогообложения НДС и приняты к учету. После этого производятся вычеты</t>
   </si>
   <si>
     <t>В соответствии со статьями 171 и 172 НК РФ товары (работы, услуги) должны быть приобретены налогоплательщиком НДС для осуществления операций, признаваемых объектом налогообложения этим налогом. Вычеты производятся после принятия товаров (работ, услуг) к учету</t>
@@ -159,29 +144,130 @@
     <t>Порядок учета, Сумм, НДС, Налог, На добавленную стоимость, Предъявленных, При приобретении, Товаров, Работ, Услуг, Для операций, Необлагаемых, Не являющихся, Объектом налогообложения</t>
   </si>
   <si>
-    <t>Суммы НДС предъявленные при приобретении таких товаров (работ, услуг) к вычету не принимаются, а учитываются в стоимости, в том числе в основных средствах и нематериальных активах</t>
-  </si>
-  <si>
-    <t>В соответствии со статьей 170 НК РФ в случае если товары (работы, услуги) используются для операций, необлагаемых НДС либо не являющихся объектом налогообложения этим налогом, суммы НДС, предъявленные при приобретении таких товаров (работ, услуг) к вычету не принимаются, а учитываются в стоимости таких товаров (работ, услуг), в том числе основных средствах и нематериальных активах</t>
-  </si>
-  <si>
     <t>Суммы, Денежных средств, Получаемые налогоплательщиком, НДС, Налог, На добавленную стоимость, Увеличивать, Налоговая база</t>
   </si>
   <si>
     <t>Какие суммы денежных средств, получаемые налогоплательщиком НДС, могут увеличивать налоговую базу по этому налогу?</t>
   </si>
   <si>
-    <t>В налоговую базу по НДС включаются денежных средств связанные с оплатой реализуемых налогоплательщиком товаров (работ, услуг)</t>
-  </si>
-  <si>
     <t>В соответствии со статьей 162 НК РФ в налоговую базу по НДС включаются суммы денежных средств, в случае если такие суммы связаны с оплатой реализуемых налогоплательщиком товаров (работ, услуг)</t>
+  </si>
+  <si>
+    <r>
+      <t>Объектом налогообложения налог</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на добавленную стоимость признаются операции по реализации товаров (работ, услуг), передаче имущественных прав на территории Российской Федерации, а также ввоз товаров на территорию Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <t>При приобретении товаров (работ, услуг), местом реализации которых признается территория Российской Федерации, у иностранных лиц, не состоящих на налоговом учете в российских налоговых органах; при приобретении услуг по аренде федерального имущества, имущества субъектов Российской Федерации и муниципального имущества, а также при приобретении государственного имущества</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 161 НК РФ организации (индивидуальные предприниматели) выступают налоговыми агентами по НДС:
+• при приобретении товаров (работ, услуг), местом реализации которых признается территория Российской Федерации, у иностранных лиц, не состоящих на налоговом учете в российских налоговых органах; 
+• при приобретении услуг по аренде федерального имущества, имущества субъектов Российской Федерации и муниципального имущества, а также при приобретении государственного имущества</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Товары (работы, услуги) должны быть </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">приобретены для операций, облагаемых </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ЭН ДЭ ЭС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и приняты к учету. После этого производятся вычеты</t>
+    </r>
+  </si>
+  <si>
+    <t>В налоговую базу по ЭН ДЭ ЭС включаются денежные средства связанные с оплатой реализуемых налогоплательщиком товаров (работ, услуг)</t>
+  </si>
+  <si>
+    <r>
+      <t>Суммы ЭН ДЭ ЭС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>предъявленные при приобретении таких товаров (работ, услуг) к вычету не принимаются, а учитываются в стоимости, в том числе в основных средствах и нематериальных активах</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>В соответствии со статьей 170 НК РФ в случае, если товары (работы, услуги) используются для операций необлагаемых НДС либо не являющихся объектом налогообложения этим налогом, суммы НДС, предъявленные при приобретении таких товаров (работ, услуг), к вычету не принимаются, а учитываются в стоимости таких товаров (работ, услуг), в том числе основных средств и нематериальных актив</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ов</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +305,46 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,6 +390,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,17 +725,17 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:A15"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" customWidth="1"/>
     <col min="5" max="5" width="50" style="2" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
@@ -663,101 +794,101 @@
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="126">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="220.5">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="173.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="129.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="299.25" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1">
@@ -770,8 +901,9 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="116.25" customHeight="1">
       <c r="A10" s="8"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="8"/>
